--- a/tutorial/Template.xlsx
+++ b/tutorial/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\gradesheets-maker\tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFECB9B8-E3EA-40C9-AAB2-DC11EFBA6089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E396ED8E-934A-45A6-9709-CED5151A0C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TtRtM" sheetId="1" r:id="rId1"/>
@@ -238,19 +238,26 @@
     <t>You have not engaged with this task and did not sucessfully take the Ring to Mordor</t>
   </si>
   <si>
-    <t>You have not engaged with this task and sucessfully destroyed the Ring.</t>
-  </si>
-  <si>
     <t>Gandelf</t>
+  </si>
+  <si>
+    <t>You have engaged with this task and sucessfully destroyed the Ring.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -648,51 +655,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -707,104 +714,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1092,7 +1102,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:E32"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="10" x14ac:dyDescent="0.35"/>
@@ -1372,7 +1382,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="34"/>
       <c r="E32" s="35"/>
@@ -1395,7 +1405,7 @@
     <mergeCell ref="A21:E30"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -1407,7 +1417,7 @@
   <dimension ref="A3:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -1486,8 +1496,8 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
-      <c r="I6" s="31" t="s">
-        <v>65</v>
+      <c r="I6" s="53" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="117.5" thickBot="1" x14ac:dyDescent="0.4">
